--- a/Copie-a-fișierului-MiniRadarREQafterreview-2.xlsx
+++ b/Copie-a-fișierului-MiniRadarREQafterreview-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flori\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\AROBS\miniRadar\Development\miniRadarArobsPractica-mare1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38773F26-1AB4-4385-803A-AA96E0E495C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E1505E-7230-4B31-B516-EFD50CEFA594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="339">
   <si>
     <t>ID</t>
   </si>
@@ -414,35 +414,16 @@
     <t>SWR_EH_25</t>
   </si>
   <si>
-    <t>1.3.3 Failed_Check</t>
-  </si>
-  <si>
     <t>SWR_EH_26</t>
   </si>
   <si>
-    <t xml:space="preserve"> battery_voltage_error, lost_comm_error
-type int, int
-mention: inputs</t>
-  </si>
-  <si>
     <t>SWR_EH_27</t>
   </si>
   <si>
-    <t>error_message
-type: string
-mention: output</t>
-  </si>
-  <si>
     <t>SWR_EH_28</t>
   </si>
   <si>
-    <t>If Battery_Error is equal to 1 then set SystemStateMachine to ERROR</t>
-  </si>
-  <si>
     <t>SWR_EH_29</t>
-  </si>
-  <si>
-    <t>If Lost_Comm_Error is equal to 1 then set SystemStateMachine to ERROR</t>
   </si>
   <si>
     <t>SWR_BV_1</t>
@@ -1164,12 +1145,69 @@
   <si>
     <t>if distance&lt;=4 &amp;&amp; distance&gt;=0 &amp;&amp; isActivRTCA()==1 then set RCTA_Waning.led_light, RCTA_Waning.led_light.audio_signal to true else to false</t>
   </si>
+  <si>
+    <t>1.3.3 SetError</t>
+  </si>
+  <si>
+    <t>ErrName
+type: enum
+mention: input</t>
+  </si>
+  <si>
+    <t>ErrStatus
+type: enum
+mention: input</t>
+  </si>
+  <si>
+    <t>Set status of error with index ErrName to ErrStatus</t>
+  </si>
+  <si>
+    <t>Set name of error with index ErrName to ErrName</t>
+  </si>
+  <si>
+    <t>Set qualification time of error with index ErrName to global TIM_QUALIFICATION</t>
+  </si>
+  <si>
+    <t>Set dequalification time of error with index ErrName to global TIM_DEQUALIFICATION</t>
+  </si>
+  <si>
+    <t>1.3.4 GetError</t>
+  </si>
+  <si>
+    <t>ErrStatus
+type: enum *pointer
+mention: input</t>
+  </si>
+  <si>
+    <t>Get status of error with index ErrName and return it with pointer ErrStatus</t>
+  </si>
+  <si>
+    <t>SWR_EH_30</t>
+  </si>
+  <si>
+    <t>SWR_EH_31</t>
+  </si>
+  <si>
+    <t>SWR_EH_32</t>
+  </si>
+  <si>
+    <t>SWR_EH_33</t>
+  </si>
+  <si>
+    <t>SWR_EH_34</t>
+  </si>
+  <si>
+    <t>SWR_EH_35</t>
+  </si>
+  <si>
+    <t>implemented</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1317,10 @@
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1443,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,14 +1615,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,6 +1657,21 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,7 +1695,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5562600" cy="3895725"/>
@@ -1680,7 +1729,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4733925" cy="3314700"/>
@@ -1911,26 +1960,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1022"/>
+  <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.69921875" customWidth="1"/>
-    <col min="2" max="2" width="101.09765625" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="101.125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="84.59765625" customWidth="1"/>
-    <col min="8" max="8" width="67.69921875" customWidth="1"/>
+    <col min="7" max="7" width="84.625" customWidth="1"/>
+    <col min="8" max="8" width="67.75" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.8">
+    <row r="1" spans="1:26" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +2019,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="19.8">
+    <row r="2" spans="1:26" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2010,7 +2059,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="18.600000000000001" thickTop="1" thickBot="1">
+    <row r="3" spans="1:26" ht="18.75" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2050,1619 +2099,1619 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-    </row>
-    <row r="5" spans="1:26" thickBot="1">
-      <c r="A5" s="51" t="s">
+      <c r="D4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+    </row>
+    <row r="6" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+    </row>
+    <row r="7" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+    </row>
+    <row r="8" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+    </row>
+    <row r="9" spans="1:26" ht="135.75" thickBot="1">
+      <c r="A9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+    </row>
+    <row r="10" spans="1:26" ht="135.75" thickBot="1">
+      <c r="A10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+    </row>
+    <row r="11" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A11" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+    </row>
+    <row r="12" spans="1:26" ht="285.75" thickBot="1">
+      <c r="A12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A13" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-    </row>
-    <row r="6" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A6" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="55" t="s">
+      <c r="D13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+    </row>
+    <row r="14" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A14" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-    </row>
-    <row r="7" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A7" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="55" t="s">
+      <c r="D14" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+    </row>
+    <row r="15" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-    </row>
-    <row r="8" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A8" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="D15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+    </row>
+    <row r="16" spans="1:26" ht="60.75" thickBot="1">
+      <c r="A16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-    </row>
-    <row r="9" spans="1:26" ht="130.19999999999999" thickBot="1">
-      <c r="A9" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="D16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A18" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" ht="30.75" thickBot="1">
+      <c r="A19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A20" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+    </row>
+    <row r="21" spans="1:26" ht="90.75" thickBot="1">
+      <c r="A21" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-    </row>
-    <row r="10" spans="1:26" ht="130.19999999999999" thickBot="1">
-      <c r="A10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="55" t="s">
+      <c r="D21" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+    </row>
+    <row r="22" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A22" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-    </row>
-    <row r="11" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="D22" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A23" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A24" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+    </row>
+    <row r="25" spans="1:26" ht="29.25" thickBot="1">
+      <c r="A25" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A26" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A27" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A28" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A29" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A30" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A31" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A32" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A34" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+    </row>
+    <row r="35" spans="1:26" ht="75.75" thickBot="1">
+      <c r="A35" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-    </row>
-    <row r="12" spans="1:26" ht="274.2" thickBot="1">
-      <c r="A12" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="55" t="s">
+      <c r="D35" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+    </row>
+    <row r="36" spans="1:26" ht="75.75" thickBot="1">
+      <c r="A36" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-    </row>
-    <row r="13" spans="1:26" thickBot="1">
-      <c r="A13" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="51" t="s">
+      <c r="D36" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+    </row>
+    <row r="37" spans="1:26" ht="75.75" thickBot="1">
+      <c r="A37" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+    </row>
+    <row r="38" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A38" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+    </row>
+    <row r="39" spans="1:26" ht="29.25" thickBot="1">
+      <c r="A39" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A40" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-    </row>
-    <row r="14" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="55" t="s">
+      <c r="D40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+    </row>
+    <row r="41" spans="1:26" ht="60.75" thickBot="1">
+      <c r="A41" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-    </row>
-    <row r="15" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A15" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="55" t="s">
+      <c r="D41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+    </row>
+    <row r="42" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A42" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-    </row>
-    <row r="16" spans="1:26" ht="58.2" thickBot="1">
-      <c r="A16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-    </row>
-    <row r="17" spans="1:26" thickBot="1">
-      <c r="A17" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="55" t="s">
+      <c r="D42" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+    </row>
+    <row r="43" spans="1:26" ht="30.75" thickBot="1">
+      <c r="A43" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D43" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F43" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-    </row>
-    <row r="18" spans="1:26" thickBot="1">
-      <c r="A18" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-    </row>
-    <row r="19" spans="1:26" ht="29.4" thickBot="1">
-      <c r="A19" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-    </row>
-    <row r="20" spans="1:26" thickBot="1">
-      <c r="A20" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-    </row>
-    <row r="21" spans="1:26" ht="72.599999999999994" thickBot="1">
-      <c r="A21" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-    </row>
-    <row r="22" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A22" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-    </row>
-    <row r="23" spans="1:26" thickBot="1">
-      <c r="A23" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-    </row>
-    <row r="24" spans="1:26" thickBot="1">
-      <c r="A24" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-    </row>
-    <row r="25" spans="1:26" ht="28.2" thickBot="1">
-      <c r="A25" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-    </row>
-    <row r="26" spans="1:26" thickBot="1">
-      <c r="A26" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-    </row>
-    <row r="27" spans="1:26" thickBot="1">
-      <c r="A27" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-    </row>
-    <row r="28" spans="1:26" thickBot="1">
-      <c r="A28" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-    </row>
-    <row r="29" spans="1:26" thickBot="1">
-      <c r="A29" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-    </row>
-    <row r="30" spans="1:26" thickBot="1">
-      <c r="A30" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-    </row>
-    <row r="31" spans="1:26" thickBot="1">
-      <c r="A31" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-    </row>
-    <row r="32" spans="1:26" thickBot="1">
-      <c r="A32" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-    </row>
-    <row r="33" spans="1:26" thickBot="1">
-      <c r="A33" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-    </row>
-    <row r="34" spans="1:26" thickBot="1">
-      <c r="A34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-    </row>
-    <row r="35" spans="1:26" ht="72.599999999999994" thickBot="1">
-      <c r="A35" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-    </row>
-    <row r="36" spans="1:26" ht="72.599999999999994" thickBot="1">
-      <c r="A36" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-    </row>
-    <row r="37" spans="1:26" ht="72.599999999999994" thickBot="1">
-      <c r="A37" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-    </row>
-    <row r="38" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A38" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-    </row>
-    <row r="39" spans="1:26" ht="28.2" thickBot="1">
-      <c r="A39" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-    </row>
-    <row r="40" spans="1:26" thickBot="1">
-      <c r="A40" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-    </row>
-    <row r="41" spans="1:26" ht="58.2" thickBot="1">
-      <c r="A41" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-    </row>
-    <row r="42" spans="1:26" ht="43.8" thickBot="1">
-      <c r="A42" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-    </row>
-    <row r="43" spans="1:26" ht="29.4" thickBot="1">
-      <c r="A43" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-    </row>
-    <row r="44" spans="1:26" ht="17.399999999999999">
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+    </row>
+    <row r="44" spans="1:26" ht="17.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="54"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4002,7 +4051,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>79</v>
@@ -4046,7 +4095,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>79</v>
@@ -4090,7 +4139,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>79</v>
@@ -4132,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>79</v>
@@ -4174,7 +4223,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>79</v>
@@ -4218,7 +4267,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>79</v>
@@ -4260,7 +4309,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>79</v>
@@ -4302,7 +4351,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>79</v>
@@ -4346,7 +4395,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>79</v>
@@ -4388,7 +4437,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>79</v>
@@ -4432,7 +4481,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>79</v>
@@ -4638,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>79</v>
@@ -4678,7 +4727,7 @@
         <v>27</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>79</v>
@@ -4709,7 +4758,7 @@
         <v>119</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>8</v>
@@ -4744,23 +4793,23 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="42" customHeight="1">
+    <row r="71" spans="1:26" ht="47.25" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="D71" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="3"/>
@@ -4784,23 +4833,23 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="39.75" customHeight="1">
+    <row r="72" spans="1:26" ht="55.5" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="D72" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="3"/>
@@ -4826,10 +4875,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>26</v>
@@ -4838,7 +4887,7 @@
         <v>27</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>79</v>
@@ -4865,11 +4914,11 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>127</v>
+      <c r="A74" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>26</v>
@@ -4878,7 +4927,7 @@
         <v>27</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>79</v>
@@ -4904,24 +4953,24 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>130</v>
+    <row r="75" spans="1:26" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>327</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>9</v>
+        <v>338</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -4944,24 +4993,24 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A76" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>9</v>
+    <row r="76" spans="1:26" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -4984,24 +5033,24 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>9</v>
+    <row r="77" spans="1:26" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A77" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -5024,23 +5073,23 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>135</v>
+    <row r="78" spans="1:26" s="45" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A78" s="46" t="s">
+        <v>335</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="D78" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="3"/>
@@ -5064,23 +5113,23 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A79" s="12" t="s">
-        <v>137</v>
+    <row r="79" spans="1:26" s="45" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A79" s="46" t="s">
+        <v>336</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="10" t="s">
+      <c r="D79" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="3"/>
@@ -5104,12 +5153,12 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>140</v>
+    <row r="80" spans="1:26" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>26</v>
@@ -5118,7 +5167,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>79</v>
@@ -5144,25 +5193,13 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>79</v>
-      </c>
+    <row r="81" spans="1:26" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="46"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -5184,13 +5221,25 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A82" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -5212,12 +5261,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>144</v>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A83" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>8</v>
@@ -5252,24 +5301,26 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="47" t="s">
-        <v>146</v>
-      </c>
+    <row r="84" spans="1:26" ht="47.25" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -5290,16 +5341,26 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="48"/>
+    <row r="85" spans="1:26" ht="43.5" customHeight="1">
+      <c r="A85" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -5320,14 +5381,26 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="48"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="48"/>
+    <row r="86" spans="1:26" ht="43.5" customHeight="1">
+      <c r="A86" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -5349,13 +5422,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="48"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="48"/>
+      <c r="A87" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -5376,14 +5461,26 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="48"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="48"/>
+    <row r="88" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A88" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5405,13 +5502,13 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="48"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="48"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -5432,14 +5529,26 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="48"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="48"/>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -5460,14 +5569,24 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="48"/>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A91" s="4"/>
       <c r="B91" s="31"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="48"/>
+      <c r="C91" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="61" t="s">
+        <v>141</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -5489,13 +5608,15 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="48"/>
+      <c r="A92" s="64" t="s">
+        <v>142</v>
+      </c>
       <c r="B92" s="31"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="62"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -5517,13 +5638,13 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A93" s="48"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="31"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="48"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -5545,13 +5666,13 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="48"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="48"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="62"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -5573,13 +5694,13 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A95" s="48"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="31"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="48"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -5601,13 +5722,13 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A96" s="48"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="31"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="62"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -5629,13 +5750,13 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="48"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="31"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="48"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5657,13 +5778,13 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="48"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="31"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="48"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="62"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5685,13 +5806,13 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="48"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="31"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="48"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="62"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5713,13 +5834,13 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="48"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="31"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="48"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="62"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -5741,13 +5862,13 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="48"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="31"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="48"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="62"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5769,13 +5890,13 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="48"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="31"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="48"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="62"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -5797,13 +5918,13 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A103" s="48"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="31"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="48"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -5825,13 +5946,13 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="49"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="31"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="49"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="62"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -5853,13 +5974,13 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="4"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="31"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="3"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -5881,25 +6002,13 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="3"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="62"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -5920,26 +6029,14 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="57" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="3"/>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A107" s="62"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="62"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -5960,26 +6057,14 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="65.25" customHeight="1">
-      <c r="A108" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="3"/>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A108" s="62"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="62"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -6000,26 +6085,14 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" s="3"/>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A109" s="62"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -6040,26 +6113,14 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="15" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" s="3"/>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A110" s="62"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="62"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -6081,25 +6142,13 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="3"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="63"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6121,24 +6170,12 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A112" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -6161,12 +6198,24 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A113" s="4"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
+      <c r="A113" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -6188,15 +6237,15 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="57" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>163</v>
+        <v>145</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>9</v>
@@ -6228,12 +6277,12 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="53.25" customHeight="1">
+    <row r="115" spans="1:26" ht="65.25" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>165</v>
+        <v>147</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>16</v>
@@ -6268,24 +6317,24 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="48" customHeight="1">
+    <row r="116" spans="1:26" ht="33.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -6310,10 +6359,10 @@
     </row>
     <row r="117" spans="1:26" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>169</v>
+        <v>151</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>26</v>
@@ -6348,12 +6397,12 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="19.5" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>26</v>
@@ -6389,11 +6438,11 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>173</v>
+      <c r="A119" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>26</v>
@@ -6429,24 +6478,12 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A120" s="4"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -6469,23 +6506,23 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>177</v>
+      <c r="A121" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6508,24 +6545,24 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A122" s="6" t="s">
-        <v>178</v>
+    <row r="122" spans="1:26" ht="53.25" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6548,13 +6585,25 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A123" s="4"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
+    <row r="123" spans="1:26" ht="48" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -6576,24 +6625,24 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B124" s="36" t="s">
-        <v>181</v>
+        <v>163</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6616,24 +6665,24 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="19.5" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>183</v>
+        <v>165</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6656,24 +6705,24 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="72" customHeight="1">
-      <c r="A126" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>186</v>
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A126" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6696,24 +6745,24 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="66" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>188</v>
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A127" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6736,24 +6785,24 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="73.5" customHeight="1">
-      <c r="A128" s="4" t="s">
-        <v>189</v>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A128" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -6776,24 +6825,24 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="77.25" customHeight="1">
-      <c r="A129" s="4" t="s">
-        <v>191</v>
+    <row r="129" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A129" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6816,25 +6865,13 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A130" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="130" spans="1:26" ht="29.25" customHeight="1">
+      <c r="A130" s="4"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -6858,22 +6895,22 @@
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>196</v>
+        <v>175</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6898,22 +6935,22 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>198</v>
+        <v>177</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>27</v>
+        <v>179</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6936,24 +6973,24 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="72" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -6976,24 +7013,24 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="66" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -7016,24 +7053,24 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="73.5" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B135" s="35" t="s">
-        <v>204</v>
+        <v>184</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -7056,24 +7093,24 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="77.25" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -7096,12 +7133,12 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="17.25" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>26</v>
@@ -7138,10 +7175,10 @@
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="B138" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>26</v>
@@ -7177,12 +7214,24 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A139" s="4"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -7206,22 +7255,22 @@
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>212</v>
+        <v>194</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -7245,12 +7294,24 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A141" s="4"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="A141" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -7273,25 +7334,25 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A142" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D142" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="50" t="s">
-        <v>214</v>
-      </c>
+      <c r="A142" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -7313,13 +7374,25 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A143" s="48"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="48"/>
+      <c r="A143" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -7341,13 +7414,25 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A144" s="48"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="48"/>
+      <c r="A144" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -7369,13 +7454,25 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A145" s="48"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="48"/>
+      <c r="A145" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -7397,13 +7494,13 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A146" s="48"/>
+      <c r="A146" s="4"/>
       <c r="B146" s="31"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="48"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -7425,13 +7522,25 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A147" s="48"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="48"/>
+      <c r="A147" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -7453,13 +7562,13 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A148" s="48"/>
+      <c r="A148" s="4"/>
       <c r="B148" s="31"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="48"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -7481,13 +7590,25 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A149" s="48"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="48"/>
+      <c r="A149" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B149" s="37"/>
+      <c r="C149" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D149" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="64" t="s">
+        <v>209</v>
+      </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -7509,13 +7630,13 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A150" s="48"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="31"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="48"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="62"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -7537,13 +7658,13 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A151" s="48"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="31"/>
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="48"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="62"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -7565,13 +7686,13 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A152" s="48"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="31"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="48"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="62"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -7593,13 +7714,13 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A153" s="48"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="31"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="48"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="62"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -7621,13 +7742,13 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A154" s="48"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="31"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="45"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="48"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="62"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -7649,13 +7770,13 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A155" s="48"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="31"/>
-      <c r="C155" s="45"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="45"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="48"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="62"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -7677,13 +7798,13 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A156" s="48"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="31"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="48"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="62"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -7705,13 +7826,13 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A157" s="48"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="31"/>
-      <c r="C157" s="45"/>
-      <c r="D157" s="45"/>
-      <c r="E157" s="45"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="48"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="62"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -7733,13 +7854,13 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A158" s="49"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="31"/>
-      <c r="C158" s="45"/>
-      <c r="D158" s="45"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="49"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="62"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -7761,13 +7882,13 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A159" s="4"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="31"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="3"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="62"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -7788,26 +7909,14 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A160" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B160" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="3"/>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A160" s="62"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="62"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -7828,26 +7937,14 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A161" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G161" s="3"/>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A161" s="62"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="66"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="62"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -7868,26 +7965,14 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="70.5" customHeight="1">
-      <c r="A162" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" s="3"/>
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A162" s="62"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="62"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -7908,26 +7993,14 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="76.5" customHeight="1">
-      <c r="A163" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B163" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G163" s="3"/>
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A163" s="62"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="62"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -7948,26 +8021,14 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A164" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" s="3"/>
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A164" s="62"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="66"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="66"/>
+      <c r="G164" s="62"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -7989,25 +8050,13 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A165" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B165" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G165" s="3"/>
+      <c r="A165" s="63"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="63"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8029,24 +8078,12 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A166" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B166" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -8068,24 +8105,24 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="72.75" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B167" s="35" t="s">
-        <v>230</v>
+        <v>210</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -8108,24 +8145,24 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="69.75" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B168" s="35" t="s">
-        <v>232</v>
+        <v>212</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -8148,24 +8185,24 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="70.5" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B169" s="35" t="s">
-        <v>234</v>
+        <v>214</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -8188,24 +8225,24 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="76.5" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -8228,12 +8265,12 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="18.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B171" s="35" t="s">
-        <v>238</v>
+        <v>218</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>26</v>
@@ -8269,12 +8306,24 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A172" s="4"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
+      <c r="A172" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -8298,22 +8347,22 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B173" s="32" t="s">
-        <v>240</v>
+        <v>222</v>
+      </c>
+      <c r="B173" s="35" t="s">
+        <v>223</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -8336,24 +8385,24 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="79.5" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>242</v>
+        <v>224</v>
+      </c>
+      <c r="B174" s="35" t="s">
+        <v>225</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -8376,17 +8425,25 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A175" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B175" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A175" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -8408,24 +8465,24 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="69" customHeight="1">
-      <c r="A176" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B176" s="33" t="s">
-        <v>246</v>
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A176" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B176" s="35" t="s">
+        <v>229</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -8448,12 +8505,12 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="16.5" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B177" s="33" t="s">
-        <v>247</v>
+        <v>230</v>
+      </c>
+      <c r="B177" s="35" t="s">
+        <v>231</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>26</v>
@@ -8490,10 +8547,10 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B178" s="33" t="s">
-        <v>249</v>
+        <v>232</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>233</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>26</v>
@@ -8508,9 +8565,7 @@
         <v>29</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="9" t="s">
-        <v>250</v>
-      </c>
+      <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -8530,31 +8585,15 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A179" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B179" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="H179" s="9" t="s">
-        <v>254</v>
-      </c>
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A179" s="4"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -8576,22 +8615,22 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B180" s="35" t="s">
-        <v>256</v>
+        <v>234</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -8614,28 +8653,26 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="33.75" customHeight="1">
+    <row r="181" spans="1:26" ht="79.5" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B181" s="40" t="s">
-        <v>258</v>
+        <v>236</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>237</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>259</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -8656,25 +8693,17 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A182" s="4" t="s">
-        <v>260</v>
+    <row r="182" spans="1:26" ht="45.75" customHeight="1">
+      <c r="A182" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -8696,13 +8725,25 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
+    <row r="183" spans="1:26" ht="69" customHeight="1">
+      <c r="A183" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B183" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -8724,21 +8765,27 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A184" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>264</v>
-      </c>
+    <row r="184" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A184" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B184" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -8759,17 +8806,27 @@
       <c r="Z184" s="3"/>
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="11" t="s">
-        <v>265</v>
-      </c>
+      <c r="A185" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185" s="3"/>
       <c r="H185" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -8790,17 +8847,31 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H186" s="3"/>
+    <row r="186" spans="1:26" ht="32.25" customHeight="1">
+      <c r="A186" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B186" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -8821,15 +8892,25 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="7" t="s">
-        <v>268</v>
-      </c>
+      <c r="A187" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -8850,15 +8931,27 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+    <row r="188" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A188" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B188" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G188" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -8881,23 +8974,23 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A189" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B189" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>8</v>
+      <c r="A189" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -8921,24 +9014,12 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A190" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B190" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -8960,27 +9041,21 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A191" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B191" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A191" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -9000,27 +9075,19 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A192" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B192" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -9040,27 +9107,17 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A193" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B193" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="9"/>
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -9081,25 +9138,15 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B194" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G194" s="3"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -9120,26 +9167,16 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A195" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B195" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G195" s="3"/>
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -9162,22 +9199,22 @@
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B196" s="42" t="s">
-        <v>285</v>
+        <v>265</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>266</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -9201,12 +9238,24 @@
       <c r="Z196" s="3"/>
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
+      <c r="A197" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -9228,13 +9277,25 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
+    <row r="198" spans="1:26" ht="46.5" customHeight="1">
+      <c r="A198" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -9256,13 +9317,25 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
+    <row r="199" spans="1:26" ht="46.5" customHeight="1">
+      <c r="A199" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B199" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -9284,15 +9357,27 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
+    <row r="200" spans="1:26" ht="46.5" customHeight="1">
+      <c r="A200" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B200" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -9313,12 +9398,24 @@
       <c r="Z200" s="3"/>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+      <c r="A201" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B201" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -9340,13 +9437,25 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
+    <row r="202" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A202" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B202" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
@@ -9369,12 +9478,24 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
+      <c r="A203" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B203" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -14605,7 +14726,13 @@
       <c r="Z389" s="3"/>
     </row>
     <row r="390" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A390" s="43"/>
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="3"/>
+      <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
@@ -14627,25 +14754,194 @@
       <c r="Z390" s="3"/>
     </row>
     <row r="391" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A391" s="43"/>
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+      <c r="K391" s="3"/>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3"/>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+      <c r="P391" s="3"/>
+      <c r="Q391" s="3"/>
+      <c r="R391" s="3"/>
+      <c r="S391" s="3"/>
+      <c r="T391" s="3"/>
+      <c r="U391" s="3"/>
+      <c r="V391" s="3"/>
+      <c r="W391" s="3"/>
+      <c r="X391" s="3"/>
+      <c r="Y391" s="3"/>
+      <c r="Z391" s="3"/>
     </row>
     <row r="392" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A392" s="43"/>
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3"/>
+      <c r="I392" s="3"/>
+      <c r="J392" s="3"/>
+      <c r="K392" s="3"/>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3"/>
+      <c r="N392" s="3"/>
+      <c r="O392" s="3"/>
+      <c r="P392" s="3"/>
+      <c r="Q392" s="3"/>
+      <c r="R392" s="3"/>
+      <c r="S392" s="3"/>
+      <c r="T392" s="3"/>
+      <c r="U392" s="3"/>
+      <c r="V392" s="3"/>
+      <c r="W392" s="3"/>
+      <c r="X392" s="3"/>
+      <c r="Y392" s="3"/>
+      <c r="Z392" s="3"/>
     </row>
     <row r="393" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A393" s="43"/>
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="3"/>
+      <c r="H393" s="3"/>
+      <c r="I393" s="3"/>
+      <c r="J393" s="3"/>
+      <c r="K393" s="3"/>
+      <c r="L393" s="3"/>
+      <c r="M393" s="3"/>
+      <c r="N393" s="3"/>
+      <c r="O393" s="3"/>
+      <c r="P393" s="3"/>
+      <c r="Q393" s="3"/>
+      <c r="R393" s="3"/>
+      <c r="S393" s="3"/>
+      <c r="T393" s="3"/>
+      <c r="U393" s="3"/>
+      <c r="V393" s="3"/>
+      <c r="W393" s="3"/>
+      <c r="X393" s="3"/>
+      <c r="Y393" s="3"/>
+      <c r="Z393" s="3"/>
     </row>
     <row r="394" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A394" s="43"/>
+      <c r="A394" s="3"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+      <c r="F394" s="3"/>
+      <c r="G394" s="3"/>
+      <c r="H394" s="3"/>
+      <c r="I394" s="3"/>
+      <c r="J394" s="3"/>
+      <c r="K394" s="3"/>
+      <c r="L394" s="3"/>
+      <c r="M394" s="3"/>
+      <c r="N394" s="3"/>
+      <c r="O394" s="3"/>
+      <c r="P394" s="3"/>
+      <c r="Q394" s="3"/>
+      <c r="R394" s="3"/>
+      <c r="S394" s="3"/>
+      <c r="T394" s="3"/>
+      <c r="U394" s="3"/>
+      <c r="V394" s="3"/>
+      <c r="W394" s="3"/>
+      <c r="X394" s="3"/>
+      <c r="Y394" s="3"/>
+      <c r="Z394" s="3"/>
     </row>
     <row r="395" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A395" s="43"/>
+      <c r="A395" s="3"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="3"/>
+      <c r="H395" s="3"/>
+      <c r="I395" s="3"/>
+      <c r="J395" s="3"/>
+      <c r="K395" s="3"/>
+      <c r="L395" s="3"/>
+      <c r="M395" s="3"/>
+      <c r="N395" s="3"/>
+      <c r="O395" s="3"/>
+      <c r="P395" s="3"/>
+      <c r="Q395" s="3"/>
+      <c r="R395" s="3"/>
+      <c r="S395" s="3"/>
+      <c r="T395" s="3"/>
+      <c r="U395" s="3"/>
+      <c r="V395" s="3"/>
+      <c r="W395" s="3"/>
+      <c r="X395" s="3"/>
+      <c r="Y395" s="3"/>
+      <c r="Z395" s="3"/>
     </row>
     <row r="396" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A396" s="43"/>
+      <c r="A396" s="3"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="3"/>
+      <c r="H396" s="3"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
+      <c r="K396" s="3"/>
+      <c r="L396" s="3"/>
+      <c r="M396" s="3"/>
+      <c r="N396" s="3"/>
+      <c r="O396" s="3"/>
+      <c r="P396" s="3"/>
+      <c r="Q396" s="3"/>
+      <c r="R396" s="3"/>
+      <c r="S396" s="3"/>
+      <c r="T396" s="3"/>
+      <c r="U396" s="3"/>
+      <c r="V396" s="3"/>
+      <c r="W396" s="3"/>
+      <c r="X396" s="3"/>
+      <c r="Y396" s="3"/>
+      <c r="Z396" s="3"/>
     </row>
     <row r="397" spans="1:26" ht="15.75" customHeight="1">
       <c r="A397" s="43"/>
+      <c r="H397" s="3"/>
+      <c r="I397" s="3"/>
+      <c r="J397" s="3"/>
+      <c r="K397" s="3"/>
+      <c r="L397" s="3"/>
+      <c r="M397" s="3"/>
+      <c r="N397" s="3"/>
+      <c r="O397" s="3"/>
+      <c r="P397" s="3"/>
+      <c r="Q397" s="3"/>
+      <c r="R397" s="3"/>
+      <c r="S397" s="3"/>
+      <c r="T397" s="3"/>
+      <c r="U397" s="3"/>
+      <c r="V397" s="3"/>
+      <c r="W397" s="3"/>
+      <c r="X397" s="3"/>
+      <c r="Y397" s="3"/>
+      <c r="Z397" s="3"/>
     </row>
     <row r="398" spans="1:26" ht="15.75" customHeight="1">
       <c r="A398" s="43"/>
@@ -16522,21 +16818,43 @@
     <row r="1022" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1022" s="43"/>
     </row>
+    <row r="1023" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1023" s="43"/>
+    </row>
+    <row r="1024" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1024" s="43"/>
+    </row>
+    <row r="1025" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1025" s="43"/>
+    </row>
+    <row r="1026" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1026" s="43"/>
+    </row>
+    <row r="1027" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1027" s="43"/>
+    </row>
+    <row r="1028" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1028" s="43"/>
+    </row>
+    <row r="1029" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1029" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G84:G104"/>
-    <mergeCell ref="A85:A104"/>
-    <mergeCell ref="A142:A158"/>
-    <mergeCell ref="G142:G158"/>
-    <mergeCell ref="C142:C158"/>
-    <mergeCell ref="D142:D158"/>
-    <mergeCell ref="E142:E158"/>
-    <mergeCell ref="F142:F158"/>
-    <mergeCell ref="C84:C104"/>
-    <mergeCell ref="D84:D104"/>
-    <mergeCell ref="E84:E104"/>
-    <mergeCell ref="F84:F104"/>
+    <mergeCell ref="G91:G111"/>
+    <mergeCell ref="A92:A111"/>
+    <mergeCell ref="A149:A165"/>
+    <mergeCell ref="G149:G165"/>
+    <mergeCell ref="C149:C165"/>
+    <mergeCell ref="D149:D165"/>
+    <mergeCell ref="E149:E165"/>
+    <mergeCell ref="F149:F165"/>
+    <mergeCell ref="C91:C111"/>
+    <mergeCell ref="D91:D111"/>
+    <mergeCell ref="E91:E111"/>
+    <mergeCell ref="F91:F111"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
